--- a/data/trans_orig/P68-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P68-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA854251-DBFE-4839-A3FE-4B1933130E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F260B9-5090-4B7F-9547-0D608C11F1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13E4A138-3E24-4287-A34C-B3DFEBB82D7C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B784AD9-30AA-4A86-847A-3DEA8BEA9AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,04%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,96%</t>
   </si>
   <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>26,77%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,49 +197,55 @@
     <t>20,96%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>15,61%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>84,39%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -248,55 +254,55 @@
     <t>26,09%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>77,38%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -305,1609 +311,1615 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>80,18%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B336C2A-1CA6-4B1A-9EFF-48269D3EECA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC1E04D-D230-496B-A68C-12C7D7A65C81}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2774,7 +2786,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2783,13 +2795,13 @@
         <v>58339</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2816,13 @@
         <v>138034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -2819,13 +2831,13 @@
         <v>71961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -2834,13 +2846,13 @@
         <v>209996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2908,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2908,13 +2920,13 @@
         <v>58323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2923,13 +2935,13 @@
         <v>22705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -2938,13 +2950,13 @@
         <v>81029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2971,13 @@
         <v>165221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -2974,13 +2986,13 @@
         <v>111922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -2989,13 +3001,13 @@
         <v>277142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3063,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3063,13 +3075,13 @@
         <v>22955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3078,13 +3090,13 @@
         <v>6970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3093,13 +3105,13 @@
         <v>29925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3126,13 @@
         <v>87547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3129,13 +3141,13 @@
         <v>41832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3144,13 +3156,13 @@
         <v>129379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3218,13 +3230,13 @@
         <v>41809</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3233,13 +3245,13 @@
         <v>14094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -3248,13 +3260,13 @@
         <v>55903</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3281,13 @@
         <v>113119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -3284,13 +3296,13 @@
         <v>68723</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>175</v>
@@ -3299,13 +3311,13 @@
         <v>181843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3373,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3385,13 @@
         <v>88448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -3388,13 +3400,13 @@
         <v>43535</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -3403,13 +3415,13 @@
         <v>131983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3436,13 @@
         <v>247401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>124</v>
@@ -3439,13 +3451,13 @@
         <v>136035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>357</v>
@@ -3454,13 +3466,13 @@
         <v>383437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3540,13 @@
         <v>108915</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3543,13 +3555,13 @@
         <v>49786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -3558,13 +3570,13 @@
         <v>158701</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3591,13 @@
         <v>350065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>181</v>
@@ -3594,13 +3606,13 @@
         <v>189194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>518</v>
@@ -3609,10 +3621,10 @@
         <v>539259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>161</v>
@@ -3689,7 +3701,7 @@
         <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -3698,28 +3710,28 @@
         <v>220121</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>665</v>
       </c>
       <c r="N28" s="7">
-        <v>692426</v>
+        <v>692427</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,10 +3746,10 @@
         <v>1421130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>171</v>
@@ -3749,13 +3761,13 @@
         <v>801343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>2127</v>
@@ -3764,13 +3776,13 @@
         <v>2222472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3824,7 @@
         <v>2792</v>
       </c>
       <c r="N30" s="7">
-        <v>2914898</v>
+        <v>2914899</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3838,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC587257-FB9A-44F6-9F33-9CEFB56E301C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AEFD43-69EC-4E4E-B3F8-CD279C860E85}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3984,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +4029,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +4074,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4123,13 @@
         <v>56590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4126,13 +4138,13 @@
         <v>34315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -4141,13 +4153,13 @@
         <v>90905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4174,13 @@
         <v>115650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4177,13 +4189,13 @@
         <v>88373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -4192,13 +4204,13 @@
         <v>204023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4278,13 @@
         <v>25305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4281,13 +4293,13 @@
         <v>17935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4296,13 +4308,13 @@
         <v>43240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4329,13 @@
         <v>117896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -4332,13 +4344,13 @@
         <v>64431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4347,13 +4359,13 @@
         <v>182327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4421,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4421,13 +4433,13 @@
         <v>87440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4436,13 +4448,13 @@
         <v>59680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4451,13 +4463,13 @@
         <v>147120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4484,13 @@
         <v>181065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -4487,13 +4499,13 @@
         <v>130238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -4502,13 +4514,13 @@
         <v>311303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4576,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4576,13 +4588,13 @@
         <v>16169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4591,13 +4603,13 @@
         <v>11661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4606,13 +4618,13 @@
         <v>27830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4639,13 @@
         <v>66145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4642,13 +4654,13 @@
         <v>45050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4657,13 +4669,13 @@
         <v>111195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4731,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4743,13 @@
         <v>44339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4746,13 +4758,13 @@
         <v>15184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -4761,13 +4773,13 @@
         <v>59523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>72951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4797,13 +4809,13 @@
         <v>40108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -4812,13 +4824,13 @@
         <v>113059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4886,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4886,13 +4898,13 @@
         <v>54430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4901,13 +4913,13 @@
         <v>46380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -4916,13 +4928,13 @@
         <v>100810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4949,13 @@
         <v>218494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -4952,13 +4964,13 @@
         <v>135785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>329</v>
@@ -4967,13 +4979,13 @@
         <v>354279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5041,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5041,13 +5053,13 @@
         <v>47179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5056,13 +5068,13 @@
         <v>30672</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5071,13 +5083,13 @@
         <v>77851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5104,13 @@
         <v>315053</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -5107,13 +5119,13 @@
         <v>228903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>501</v>
@@ -5122,13 +5134,13 @@
         <v>543956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5208,13 @@
         <v>331452</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>198</v>
@@ -5211,13 +5223,13 @@
         <v>215828</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="M28" s="7">
         <v>516</v>
@@ -5226,13 +5238,13 @@
         <v>547279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5259,13 @@
         <v>1087253</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>678</v>
@@ -5262,10 +5274,10 @@
         <v>732888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>319</v>
@@ -5339,7 +5351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDB9753-AF8D-4937-A171-4F96C08DF0CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DCC2E-CEB7-4206-BFF3-2F5FF342CB81}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5940,7 +5952,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5985,10 +5997,10 @@
         <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6015,13 @@
         <v>79715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -6018,13 +6030,13 @@
         <v>50042</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -6033,13 +6045,13 @@
         <v>129757</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,7 +6107,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6107,13 +6119,13 @@
         <v>14870</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6122,13 +6134,13 @@
         <v>5771</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6137,13 +6149,13 @@
         <v>20641</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6170,13 @@
         <v>65103</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6250,7 +6262,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6405,7 +6417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6414,7 +6426,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>78343</v>
+        <v>78342</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>430</v>
@@ -6447,13 +6459,13 @@
         <v>134024</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6480,13 @@
         <v>276153</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>220</v>
@@ -6483,28 +6495,28 @@
         <v>226945</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>459</v>
       </c>
       <c r="N23" s="7">
-        <v>503099</v>
+        <v>503098</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,7 +6528,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="7">
-        <v>354496</v>
+        <v>354495</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6546,7 +6558,7 @@
         <v>580</v>
       </c>
       <c r="N24" s="7">
-        <v>637123</v>
+        <v>637122</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6560,7 +6572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6572,13 +6584,13 @@
         <v>39274</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -6587,13 +6599,13 @@
         <v>21400</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -6602,13 +6614,13 @@
         <v>60674</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6635,13 @@
         <v>288577</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>211</v>
@@ -6638,13 +6650,13 @@
         <v>219071</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>488</v>
@@ -6653,13 +6665,13 @@
         <v>507648</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6739,13 @@
         <v>350001</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -6745,10 +6757,10 @@
         <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>115</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>529</v>
@@ -6760,10 +6772,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6790,13 @@
         <v>1060336</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>801</v>
@@ -6793,13 +6805,13 @@
         <v>815756</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>125</v>
       </c>
       <c r="M29" s="7">
         <v>1791</v>
@@ -6808,13 +6820,13 @@
         <v>1876092</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7CAD40-0861-4AA8-ACA5-BC4E52B89FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6B022D-F743-4160-84FF-AF8359DCC473}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7030,13 @@
         <v>20571</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -7033,13 +7045,13 @@
         <v>14843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -7048,13 +7060,13 @@
         <v>35414</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7081,13 @@
         <v>142388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>227</v>
@@ -7084,13 +7096,13 @@
         <v>120047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>401</v>
@@ -7099,13 +7111,13 @@
         <v>262435</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7185,13 @@
         <v>46001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7188,13 +7200,13 @@
         <v>48621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -7203,13 +7215,13 @@
         <v>94622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7236,13 @@
         <v>179151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -7239,13 +7251,13 @@
         <v>120029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -7254,13 +7266,13 @@
         <v>299180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7340,13 @@
         <v>50730</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -7343,13 +7355,13 @@
         <v>48921</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -7358,13 +7370,13 @@
         <v>99652</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7391,13 @@
         <v>98493</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -7471,7 +7483,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7626,7 +7638,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7671,10 +7683,10 @@
         <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7701,13 @@
         <v>105585</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -7704,13 +7716,13 @@
         <v>104614</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -7719,13 +7731,13 @@
         <v>210199</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7793,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7793,13 +7805,13 @@
         <v>32706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -7808,13 +7820,13 @@
         <v>32471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -7823,13 +7835,13 @@
         <v>65177</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7856,13 @@
         <v>105149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -7859,13 +7871,13 @@
         <v>60474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -7874,13 +7886,13 @@
         <v>165623</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,7 +7948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7960,13 @@
         <v>74377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -7963,13 +7975,13 @@
         <v>75080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -7978,13 +7990,13 @@
         <v>149458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8011,13 @@
         <v>256994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -8014,13 +8026,13 @@
         <v>246409</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M23" s="7">
         <v>577</v>
@@ -8029,13 +8041,13 @@
         <v>503403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8103,13 +8115,13 @@
         <v>67056</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -8118,13 +8130,13 @@
         <v>67136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>126</v>
@@ -8133,13 +8145,13 @@
         <v>134191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8166,13 @@
         <v>439035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>305</v>
@@ -8169,13 +8181,13 @@
         <v>258933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>633</v>
@@ -8184,13 +8196,13 @@
         <v>697969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8270,13 @@
         <v>353017</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
@@ -8273,13 +8285,13 @@
         <v>361211</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M28" s="7">
         <v>812</v>
@@ -8288,13 +8300,13 @@
         <v>714228</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8321,13 @@
         <v>1459248</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
@@ -8324,13 +8336,13 @@
         <v>1123068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
@@ -8339,13 +8351,13 @@
         <v>2582316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>625</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,7 +8413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P68-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P68-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F260B9-5090-4B7F-9547-0D608C11F1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AB3954-9EE7-4DAF-8EB9-B4F2AF6EAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B784AD9-30AA-4A86-847A-3DEA8BEA9AD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{022C3561-FA5F-4277-B91D-6013A0787F29}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,04%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,96%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,439 +140,445 @@
     <t>26,77%</t>
   </si>
   <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
     <t>21,04%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>78,96%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>80,08%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>77,26%</t>
   </si>
   <si>
-    <t>80,07%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>22,9%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>77,1%</t>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -587,1191 +593,1167 @@
     <t>32,86%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>80,36%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>27,46%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>72,54%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>25,46%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>26,51%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>73,49%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2015 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
     <t>71,76%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
     <t>22,45%</t>
   </si>
   <si>
@@ -1787,9 +1769,6 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
     <t>26,16%</t>
   </si>
   <si>
@@ -1808,9 +1787,6 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
     <t>73,84%</t>
   </si>
   <si>
@@ -1883,15 +1859,9 @@
     <t>22,13%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
     <t>23,44%</t>
   </si>
   <si>
@@ -1907,9 +1877,6 @@
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
     <t>77,87%</t>
   </si>
   <si>
@@ -1917,9 +1884,6 @@
   </si>
   <si>
     <t>76,56%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC1E04D-D230-496B-A68C-12C7D7A65C81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D525C7-87D6-4F90-8C4C-1DF84C56988B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2926,7 +2890,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2935,13 +2899,13 @@
         <v>22705</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -2950,13 +2914,13 @@
         <v>81029</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2935,13 @@
         <v>165221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -2986,13 +2950,13 @@
         <v>111922</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -3001,13 +2965,13 @@
         <v>277142</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3027,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3075,13 +3039,13 @@
         <v>22955</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3090,13 +3054,13 @@
         <v>6970</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3105,13 +3069,13 @@
         <v>29925</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3090,13 @@
         <v>87547</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3141,13 +3105,13 @@
         <v>41832</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -3156,13 +3120,13 @@
         <v>129379</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3230,13 +3194,13 @@
         <v>41809</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3245,13 +3209,13 @@
         <v>14094</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -3260,13 +3224,13 @@
         <v>55903</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3245,13 @@
         <v>113119</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -3296,13 +3260,13 @@
         <v>68723</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>175</v>
@@ -3311,13 +3275,13 @@
         <v>181843</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3385,13 +3349,13 @@
         <v>88448</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -3400,13 +3364,13 @@
         <v>43535</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -3415,13 +3379,13 @@
         <v>131983</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3400,13 @@
         <v>247401</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>124</v>
@@ -3451,13 +3415,13 @@
         <v>136035</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>357</v>
@@ -3466,13 +3430,13 @@
         <v>383437</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3504,13 @@
         <v>108915</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3555,13 +3519,13 @@
         <v>49786</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>157</v>
@@ -3570,13 +3534,13 @@
         <v>158701</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3555,13 @@
         <v>350065</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>181</v>
@@ -3606,13 +3570,13 @@
         <v>189194</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>518</v>
@@ -3621,10 +3585,10 @@
         <v>539259</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>161</v>
@@ -3701,7 +3665,7 @@
         <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -3710,28 +3674,28 @@
         <v>220121</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>665</v>
       </c>
       <c r="N28" s="7">
-        <v>692427</v>
+        <v>692426</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3710,13 @@
         <v>1421130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>763</v>
@@ -3761,13 +3725,13 @@
         <v>801343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>2127</v>
@@ -3776,13 +3740,13 @@
         <v>2222472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3788,7 @@
         <v>2792</v>
       </c>
       <c r="N30" s="7">
-        <v>2914899</v>
+        <v>2914898</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AEFD43-69EC-4E4E-B3F8-CD279C860E85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE283E67-9155-452B-B54B-1820374094FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4087,13 @@
         <v>56590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4138,13 +4102,13 @@
         <v>34315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -4153,13 +4117,13 @@
         <v>90905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4138,13 @@
         <v>115650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4189,13 +4153,13 @@
         <v>88373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -4204,13 +4168,13 @@
         <v>204023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4242,13 @@
         <v>25305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4293,13 +4257,13 @@
         <v>17935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4308,13 +4272,13 @@
         <v>43240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4293,13 @@
         <v>117896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -4344,13 +4308,13 @@
         <v>64431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4359,13 +4323,13 @@
         <v>182327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4397,13 @@
         <v>87440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4448,13 +4412,13 @@
         <v>59680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4463,13 +4427,13 @@
         <v>147120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4448,13 @@
         <v>181065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -4499,13 +4463,13 @@
         <v>130238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -4514,13 +4478,13 @@
         <v>311303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4540,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4588,13 +4552,13 @@
         <v>16169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4603,13 +4567,13 @@
         <v>11661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4618,13 +4582,13 @@
         <v>27830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4603,13 @@
         <v>66145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4654,13 +4618,13 @@
         <v>45050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4669,13 +4633,13 @@
         <v>111195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4695,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4743,13 +4707,13 @@
         <v>44339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4758,13 +4722,13 @@
         <v>15184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -4773,13 +4737,13 @@
         <v>59523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4758,13 @@
         <v>72951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4809,13 +4773,13 @@
         <v>40108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -4824,13 +4788,13 @@
         <v>113059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4850,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4898,13 +4862,13 @@
         <v>54430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4913,13 +4877,13 @@
         <v>46380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -4928,13 +4892,13 @@
         <v>100810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4913,13 @@
         <v>218494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -4964,13 +4928,13 @@
         <v>135785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>329</v>
@@ -4979,13 +4943,13 @@
         <v>354279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5229,7 +5193,7 @@
         <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>516</v>
@@ -5238,13 +5202,13 @@
         <v>547279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,10 +5241,10 @@
         <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>1692</v>
@@ -5289,10 +5253,10 @@
         <v>1820141</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>322</v>
@@ -5351,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9DCC2E-CEB7-4206-BFF3-2F5FF342CB81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8D133-3FC2-4033-813E-81EAC5313831}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5845,7 +5809,7 @@
         <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5824,13 @@
         <v>101622</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -5875,13 +5839,13 @@
         <v>70835</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -5890,13 +5854,13 @@
         <v>172457</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5928,13 @@
         <v>32465</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5979,13 +5943,13 @@
         <v>29935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5994,13 +5958,13 @@
         <v>62400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5979,13 @@
         <v>79715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -6030,13 +5994,13 @@
         <v>50042</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -6045,13 +6009,13 @@
         <v>129757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6071,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6119,13 +6083,13 @@
         <v>14870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6134,13 +6098,13 @@
         <v>5771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6149,13 +6113,13 @@
         <v>20641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6134,13 @@
         <v>65103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6185,13 +6149,13 @@
         <v>49647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -6200,13 +6164,13 @@
         <v>114751</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,7 +6226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6274,13 +6238,13 @@
         <v>22434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6289,13 +6253,13 @@
         <v>7427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -6304,13 +6268,13 @@
         <v>29860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6289,13 @@
         <v>84065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -6340,13 +6304,13 @@
         <v>68141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>150</v>
@@ -6355,13 +6319,13 @@
         <v>152207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6393,13 @@
         <v>78342</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6444,13 +6408,13 @@
         <v>55682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -6459,13 +6423,13 @@
         <v>134024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6444,13 @@
         <v>276153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>220</v>
@@ -6495,13 +6459,13 @@
         <v>226945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="M23" s="7">
         <v>459</v>
@@ -6510,13 +6474,13 @@
         <v>503098</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6548,13 @@
         <v>39274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -6599,13 +6563,13 @@
         <v>21400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -6614,13 +6578,13 @@
         <v>60674</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6599,13 @@
         <v>288577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>211</v>
@@ -6650,13 +6614,13 @@
         <v>219071</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>488</v>
@@ -6665,13 +6629,13 @@
         <v>507648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6703,13 @@
         <v>350001</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -6757,10 +6721,10 @@
         <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>115</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>529</v>
@@ -6772,10 +6736,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>377</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6754,13 @@
         <v>1060336</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>801</v>
@@ -6808,10 +6772,10 @@
         <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>125</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>1791</v>
@@ -6823,10 +6787,10 @@
         <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6B022D-F743-4160-84FF-AF8359DCC473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A6D61-5601-49F8-878D-C56B2FAF8219}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +6994,13 @@
         <v>20571</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -7045,13 +7009,13 @@
         <v>14843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -7060,13 +7024,13 @@
         <v>35414</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7045,13 @@
         <v>142388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>227</v>
@@ -7096,13 +7060,13 @@
         <v>120047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>401</v>
@@ -7111,13 +7075,13 @@
         <v>262435</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7149,13 @@
         <v>46001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7200,13 +7164,13 @@
         <v>48621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -7215,13 +7179,13 @@
         <v>94622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7200,13 @@
         <v>179151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -7251,13 +7215,13 @@
         <v>120029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -7266,13 +7230,13 @@
         <v>299180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7304,13 @@
         <v>50730</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -7355,13 +7319,13 @@
         <v>48921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -7370,13 +7334,13 @@
         <v>99652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7355,13 @@
         <v>98493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -7406,13 +7370,13 @@
         <v>79472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -7421,13 +7385,13 @@
         <v>177964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7459,13 @@
         <v>42134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -7510,13 +7474,13 @@
         <v>62159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -7525,13 +7489,13 @@
         <v>104293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7510,13 @@
         <v>132453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -7561,13 +7525,13 @@
         <v>133090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -7576,13 +7540,13 @@
         <v>265543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,7 +7602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7650,13 +7614,13 @@
         <v>19442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -7665,13 +7629,13 @@
         <v>11981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -7680,13 +7644,13 @@
         <v>31422</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7665,13 @@
         <v>105585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -7716,13 +7680,13 @@
         <v>104614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -7731,13 +7695,13 @@
         <v>210199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7805,13 +7769,13 @@
         <v>32706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -7820,13 +7784,13 @@
         <v>32471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -7835,13 +7799,13 @@
         <v>65177</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7820,13 @@
         <v>105149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -7871,13 +7835,13 @@
         <v>60474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -7886,13 +7850,13 @@
         <v>165623</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7960,13 +7924,13 @@
         <v>74377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -7975,13 +7939,13 @@
         <v>75080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -7990,13 +7954,13 @@
         <v>149458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7975,13 @@
         <v>256994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -8026,13 +7990,13 @@
         <v>246409</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>577</v>
@@ -8041,13 +8005,13 @@
         <v>503403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>589</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8115,13 +8079,13 @@
         <v>67056</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -8130,13 +8094,13 @@
         <v>67136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>126</v>
@@ -8145,13 +8109,13 @@
         <v>134191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8130,13 @@
         <v>439035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>305</v>
@@ -8181,13 +8145,13 @@
         <v>258933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>633</v>
@@ -8196,13 +8160,13 @@
         <v>697969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8234,13 @@
         <v>353017</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
@@ -8285,13 +8249,13 @@
         <v>361211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>262</v>
       </c>
       <c r="M28" s="7">
         <v>812</v>
@@ -8300,13 +8264,13 @@
         <v>714228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8285,13 @@
         <v>1459248</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
@@ -8336,13 +8300,13 @@
         <v>1123068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>272</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
@@ -8351,13 +8315,13 @@
         <v>2582316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P68-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P68-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AB3954-9EE7-4DAF-8EB9-B4F2AF6EAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECC2C82-853E-454E-91D0-6293D0EBB3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{022C3561-FA5F-4277-B91D-6013A0787F29}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{444AA724-F9E0-444D-8982-30D74AA203EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,96%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>26,77%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1693 +197,1717 @@
     <t>20,96%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>15,67%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>21,04%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>78,96%</t>
   </si>
   <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2016 (Tasa respuesta: 35,32%)</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>43,36%</t>
+    <t>43,42%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>33,43%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>56,64%</t>
+    <t>56,58%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>66,57%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>76,65%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>79,41%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>22,13%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>19,82%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>77,87%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>76,56%</t>
+    <t>80,18%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D525C7-87D6-4F90-8C4C-1DF84C56988B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139F683D-A1BA-4710-893E-EDCAE9189FCA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,7 +2774,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2759,13 +2783,13 @@
         <v>58339</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2804,13 @@
         <v>138034</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -2795,13 +2819,13 @@
         <v>71961</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -2810,13 +2834,13 @@
         <v>209996</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,7 +2896,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2884,13 +2908,13 @@
         <v>58323</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2899,13 +2923,13 @@
         <v>22705</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -2914,13 +2938,13 @@
         <v>81029</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,10 +2959,10 @@
         <v>165221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -3674,13 +3698,13 @@
         <v>220121</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>665</v>
@@ -3689,13 +3713,13 @@
         <v>692426</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3734,13 @@
         <v>1421130</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>763</v>
@@ -3725,13 +3749,13 @@
         <v>801343</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>2127</v>
@@ -3740,13 +3764,13 @@
         <v>2222472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE283E67-9155-452B-B54B-1820374094FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7CF171-06F8-4872-B5C0-8EA6D1EAB25F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4111,13 @@
         <v>56590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4102,13 +4126,13 @@
         <v>34315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -4117,13 +4141,13 @@
         <v>90905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4162,13 @@
         <v>115650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4153,13 +4177,13 @@
         <v>88373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -4168,13 +4192,13 @@
         <v>204023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4266,13 @@
         <v>25305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4257,13 +4281,13 @@
         <v>17935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4272,13 +4296,13 @@
         <v>43240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4317,13 @@
         <v>117896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -4308,13 +4332,13 @@
         <v>64431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4323,13 +4347,13 @@
         <v>182327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4409,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4397,13 +4421,13 @@
         <v>87440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4412,13 +4436,13 @@
         <v>59680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4427,13 +4451,13 @@
         <v>147120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4472,13 @@
         <v>181065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -4463,13 +4487,13 @@
         <v>130238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -4478,13 +4502,13 @@
         <v>311303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4576,13 @@
         <v>16169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4567,13 +4591,13 @@
         <v>11661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4582,13 +4606,13 @@
         <v>27830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4627,13 @@
         <v>66145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4618,13 +4642,13 @@
         <v>45050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4633,13 +4657,13 @@
         <v>111195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4731,13 @@
         <v>44339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4722,13 +4746,13 @@
         <v>15184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -4737,13 +4761,13 @@
         <v>59523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4782,13 @@
         <v>72951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4773,13 +4797,13 @@
         <v>40108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -4788,13 +4812,13 @@
         <v>113059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4886,13 @@
         <v>54430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4877,13 +4901,13 @@
         <v>46380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -4892,13 +4916,13 @@
         <v>100810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4937,13 @@
         <v>218494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -4928,13 +4952,13 @@
         <v>135785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>329</v>
@@ -4943,13 +4967,13 @@
         <v>354279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5041,13 @@
         <v>47179</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5032,13 +5056,13 @@
         <v>30672</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5047,13 +5071,13 @@
         <v>77851</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5092,13 @@
         <v>315053</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -5083,13 +5107,13 @@
         <v>228903</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>501</v>
@@ -5098,13 +5122,13 @@
         <v>543956</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5196,13 @@
         <v>331452</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>198</v>
@@ -5187,13 +5211,13 @@
         <v>215828</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>516</v>
@@ -5202,13 +5226,13 @@
         <v>547279</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5247,13 @@
         <v>1087253</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>678</v>
@@ -5238,13 +5262,13 @@
         <v>732888</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>1692</v>
@@ -5253,10 +5277,10 @@
         <v>1820141</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>322</v>
@@ -5315,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D8D133-3FC2-4033-813E-81EAC5313831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8C9D36-9EFD-4A64-935F-B940E359353C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5809,7 +5833,7 @@
         <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5848,13 @@
         <v>101622</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -5839,13 +5863,13 @@
         <v>70835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -5854,13 +5878,13 @@
         <v>172457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5940,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5952,13 @@
         <v>32465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5943,13 +5967,13 @@
         <v>29935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5958,13 +5982,13 @@
         <v>62400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +6003,13 @@
         <v>79715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5994,13 +6018,13 @@
         <v>50042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -6009,13 +6033,13 @@
         <v>129757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6107,13 @@
         <v>14870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6098,13 +6122,13 @@
         <v>5771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6113,13 +6137,13 @@
         <v>20641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6158,13 @@
         <v>65103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6149,13 +6173,13 @@
         <v>49647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -6164,13 +6188,13 @@
         <v>114751</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6262,13 @@
         <v>22434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6253,13 +6277,13 @@
         <v>7427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -6268,13 +6292,13 @@
         <v>29860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6313,13 @@
         <v>84065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -6304,13 +6328,13 @@
         <v>68141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>150</v>
@@ -6319,13 +6343,13 @@
         <v>152207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,16 +6414,16 @@
         <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>78342</v>
+        <v>78343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6408,13 +6432,13 @@
         <v>55682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -6423,13 +6447,13 @@
         <v>134024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6468,13 @@
         <v>276153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>220</v>
@@ -6459,28 +6483,28 @@
         <v>226945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>459</v>
       </c>
       <c r="N23" s="7">
-        <v>503098</v>
+        <v>503099</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +6516,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="7">
-        <v>354495</v>
+        <v>354496</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6522,7 +6546,7 @@
         <v>580</v>
       </c>
       <c r="N24" s="7">
-        <v>637122</v>
+        <v>637123</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6548,13 +6572,13 @@
         <v>39274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -6563,13 +6587,13 @@
         <v>21400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -6578,13 +6602,13 @@
         <v>60674</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6623,13 @@
         <v>288577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>211</v>
@@ -6614,13 +6638,13 @@
         <v>219071</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>488</v>
@@ -6629,13 +6653,13 @@
         <v>507648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6727,13 @@
         <v>350001</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -6721,10 +6745,10 @@
         <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>529</v>
@@ -6736,10 +6760,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6778,13 @@
         <v>1060336</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>801</v>
@@ -6769,13 +6793,13 @@
         <v>815756</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>1791</v>
@@ -6784,13 +6808,13 @@
         <v>1876092</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A6D61-5601-49F8-878D-C56B2FAF8219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16ACB9D-6B93-4EE7-B94C-EAEF6F7FB0F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +7018,13 @@
         <v>20571</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -7009,13 +7033,13 @@
         <v>14843</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -7024,13 +7048,13 @@
         <v>35414</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7069,13 @@
         <v>142388</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>227</v>
@@ -7060,13 +7084,13 @@
         <v>120047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>401</v>
@@ -7075,13 +7099,13 @@
         <v>262435</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7173,13 @@
         <v>46001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -7164,13 +7188,13 @@
         <v>48621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -7179,13 +7203,13 @@
         <v>94622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7224,13 @@
         <v>179151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -7215,13 +7239,13 @@
         <v>120029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
@@ -7230,13 +7254,13 @@
         <v>299180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7328,13 @@
         <v>50730</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -7319,13 +7343,13 @@
         <v>48921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -7334,13 +7358,13 @@
         <v>99652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7379,13 @@
         <v>98493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -7370,13 +7394,13 @@
         <v>79472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -7385,13 +7409,13 @@
         <v>177964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,7 +7471,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7459,13 +7483,13 @@
         <v>42134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -7474,13 +7498,13 @@
         <v>62159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -7489,13 +7513,13 @@
         <v>104293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7534,13 @@
         <v>132453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -7525,13 +7549,13 @@
         <v>133090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -7540,13 +7564,13 @@
         <v>265543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7638,13 @@
         <v>19442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -7629,13 +7653,13 @@
         <v>11981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -7644,13 +7668,13 @@
         <v>31422</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7689,13 @@
         <v>105585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -7680,13 +7704,13 @@
         <v>104614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -7695,13 +7719,13 @@
         <v>210199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7793,13 @@
         <v>32706</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -7784,13 +7808,13 @@
         <v>32471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -7799,13 +7823,13 @@
         <v>65177</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>571</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7844,13 @@
         <v>105149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -7835,13 +7859,13 @@
         <v>60474</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -7850,13 +7874,13 @@
         <v>165623</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7948,13 @@
         <v>74377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -7939,13 +7963,13 @@
         <v>75080</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -7954,13 +7978,13 @@
         <v>149458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7999,13 @@
         <v>256994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -7990,13 +8014,13 @@
         <v>246409</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="M23" s="7">
         <v>577</v>
@@ -8005,13 +8029,13 @@
         <v>503403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8103,13 @@
         <v>67056</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -8094,13 +8118,13 @@
         <v>67136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>126</v>
@@ -8109,13 +8133,13 @@
         <v>134191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8154,13 @@
         <v>439035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>305</v>
@@ -8145,13 +8169,13 @@
         <v>258933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="M26" s="7">
         <v>633</v>
@@ -8160,13 +8184,13 @@
         <v>697969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8258,13 @@
         <v>353017</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>549</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
@@ -8249,13 +8273,13 @@
         <v>361211</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>262</v>
+        <v>615</v>
       </c>
       <c r="M28" s="7">
         <v>812</v>
@@ -8264,13 +8288,13 @@
         <v>714228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>617</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>607</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8309,13 @@
         <v>1459248</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>608</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
@@ -8300,13 +8324,13 @@
         <v>1123068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>272</v>
+        <v>619</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
@@ -8315,13 +8339,13 @@
         <v>2582316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>614</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P68-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P68-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECC2C82-853E-454E-91D0-6293D0EBB3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92ED38E9-8EBD-4FDE-A935-4AC2ED12CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{444AA724-F9E0-444D-8982-30D74AA203EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B199610B-4A26-4E51-B2A1-167EF73B46CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="650">
   <si>
     <t>Población según si piensan que su trabajo les afecta negativamente en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población según si piensan que su trabajo les afecta negativamente en 2012 (Tasa respuesta: 33,93%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>32,86%</t>
@@ -686,58 +737,58 @@
     <t>85,5%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>19,64%</t>
@@ -1478,436 +1529,466 @@
     <t>Población según si piensan que su trabajo les afecta negativamente en 2023 (Tasa respuesta: 42,0%)</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139F683D-A1BA-4710-893E-EDCAE9189FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C41F000-919E-471E-B00E-359E29CBCBCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2625,7 +2706,7 @@
         <v>97</v>
       </c>
       <c r="N7" s="7">
-        <v>105085</v>
+        <v>105084</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2727,7 +2808,7 @@
         <v>380</v>
       </c>
       <c r="N9" s="7">
-        <v>402494</v>
+        <v>402493</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3710,7 +3791,7 @@
         <v>665</v>
       </c>
       <c r="N28" s="7">
-        <v>692426</v>
+        <v>692427</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>166</v>
@@ -3812,7 +3893,7 @@
         <v>2792</v>
       </c>
       <c r="N30" s="7">
-        <v>2914898</v>
+        <v>2914899</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7CF171-06F8-4872-B5C0-8EA6D1EAB25F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2210F86-2645-47F5-8E6C-7FE7D168D852}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3968,43 +4049,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D4" s="7">
+        <v>40373</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I4" s="7">
+        <v>30145</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N4" s="7">
+        <v>70518</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,43 +4100,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D5" s="7">
+        <v>85443</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57325</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="N5" s="7">
+        <v>142768</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,43 +4151,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D6" s="7">
+        <v>125816</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I6" s="7">
+        <v>87470</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="N6" s="7">
+        <v>213286</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4210,13 @@
         <v>56590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4126,13 +4225,13 @@
         <v>34315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -4141,13 +4240,13 @@
         <v>90905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4261,13 @@
         <v>115650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4177,13 +4276,13 @@
         <v>88373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -4192,13 +4291,13 @@
         <v>204023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4365,13 @@
         <v>25305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4281,13 +4380,13 @@
         <v>17935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4296,13 +4395,13 @@
         <v>43240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4416,13 @@
         <v>117896</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -4332,13 +4431,13 @@
         <v>64431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>180</v>
@@ -4347,13 +4446,13 @@
         <v>182327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,49 +4514,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>87440</v>
+        <v>47067</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>59680</v>
+        <v>29535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>147120</v>
+        <v>76603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7">
-        <v>181065</v>
+        <v>95622</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="I14" s="7">
-        <v>130238</v>
+        <v>72913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="N14" s="7">
-        <v>311303</v>
+        <v>168534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>268505</v>
+        <v>142689</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4532,10 +4631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="I15" s="7">
-        <v>189918</v>
+        <v>102448</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4547,10 +4646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>426</v>
+        <v>227</v>
       </c>
       <c r="N15" s="7">
-        <v>458423</v>
+        <v>245137</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4576,13 +4675,13 @@
         <v>16169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4591,13 +4690,13 @@
         <v>11661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4606,13 +4705,13 @@
         <v>27830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4726,13 @@
         <v>66145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4642,13 +4741,13 @@
         <v>45050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -4657,13 +4756,13 @@
         <v>111195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4830,13 @@
         <v>44339</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4746,13 +4845,13 @@
         <v>15184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -4761,13 +4860,13 @@
         <v>59523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4881,13 @@
         <v>72951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4797,13 +4896,13 @@
         <v>40108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -4812,13 +4911,13 @@
         <v>113059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4985,13 @@
         <v>54430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -4901,13 +5000,13 @@
         <v>46380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -4916,13 +5015,13 @@
         <v>100810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +5036,13 @@
         <v>218494</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -4952,13 +5051,13 @@
         <v>135785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>329</v>
@@ -4967,13 +5066,13 @@
         <v>354279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5140,13 @@
         <v>47179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5056,13 +5155,13 @@
         <v>30672</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5071,13 +5170,13 @@
         <v>77851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5191,13 @@
         <v>315053</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -5107,13 +5206,13 @@
         <v>228903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>501</v>
@@ -5122,13 +5221,13 @@
         <v>543956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5295,13 @@
         <v>331452</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>198</v>
@@ -5211,28 +5310,28 @@
         <v>215828</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>516</v>
       </c>
       <c r="N28" s="7">
-        <v>547279</v>
+        <v>547280</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5346,13 @@
         <v>1087253</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>678</v>
@@ -5262,13 +5361,13 @@
         <v>732888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>1692</v>
@@ -5277,13 +5376,13 @@
         <v>1820141</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5424,7 @@
         <v>2208</v>
       </c>
       <c r="N30" s="7">
-        <v>2367420</v>
+        <v>2367421</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5363,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8C9D36-9EFD-4A64-935F-B940E359353C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10606D36-9AE9-4CEB-8DE6-2BBB29033F90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5586,13 @@
         <v>58577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5502,13 +5601,13 @@
         <v>40884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -5517,13 +5616,13 @@
         <v>99461</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5637,13 @@
         <v>77589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -5553,13 +5652,13 @@
         <v>60091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
@@ -5568,13 +5667,13 @@
         <v>137680</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5741,13 @@
         <v>82786</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5657,13 +5756,13 @@
         <v>42697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -5672,13 +5771,13 @@
         <v>125483</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5792,13 @@
         <v>87511</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -5708,13 +5807,13 @@
         <v>70983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>147</v>
@@ -5723,13 +5822,13 @@
         <v>158494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5896,13 @@
         <v>21254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5812,13 +5911,13 @@
         <v>12501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5827,13 +5926,13 @@
         <v>33755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5947,13 @@
         <v>101622</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -5863,13 +5962,13 @@
         <v>70835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -5878,13 +5977,13 @@
         <v>172457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +6051,13 @@
         <v>32465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5967,13 +6066,13 @@
         <v>29935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -5982,13 +6081,13 @@
         <v>62400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6102,13 @@
         <v>79715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -6018,13 +6117,13 @@
         <v>50042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -6033,13 +6132,13 @@
         <v>129757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6206,13 @@
         <v>14870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6122,13 +6221,13 @@
         <v>5771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6137,13 +6236,13 @@
         <v>20641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6257,13 @@
         <v>65103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -6173,13 +6272,13 @@
         <v>49647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -6188,13 +6287,13 @@
         <v>114751</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6361,13 @@
         <v>22434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6277,13 +6376,13 @@
         <v>7427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -6292,13 +6391,13 @@
         <v>29860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6412,13 @@
         <v>84065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -6328,13 +6427,13 @@
         <v>68141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>150</v>
@@ -6343,13 +6442,13 @@
         <v>152207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,16 +6513,16 @@
         <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>78343</v>
+        <v>78342</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -6432,13 +6531,13 @@
         <v>55682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -6447,13 +6546,13 @@
         <v>134024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6567,13 @@
         <v>276153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="H23" s="7">
         <v>220</v>
@@ -6483,13 +6582,13 @@
         <v>226945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>459</v>
@@ -6498,13 +6597,13 @@
         <v>503099</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,7 +6615,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="7">
-        <v>354496</v>
+        <v>354495</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6572,13 +6671,13 @@
         <v>39274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -6587,13 +6686,13 @@
         <v>21400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -6602,13 +6701,13 @@
         <v>60674</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6722,13 @@
         <v>288577</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>211</v>
@@ -6638,13 +6737,13 @@
         <v>219071</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>488</v>
@@ -6653,13 +6752,13 @@
         <v>507648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6826,13 @@
         <v>350001</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -6745,10 +6844,10 @@
         <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M28" s="7">
         <v>529</v>
@@ -6763,7 +6862,7 @@
         <v>33</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6877,13 @@
         <v>1060336</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="H29" s="7">
         <v>801</v>
@@ -6796,10 +6895,10 @@
         <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>1791</v>
@@ -6811,7 +6910,7 @@
         <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>43</v>
@@ -6894,7 +6993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16ACB9D-6B93-4EE7-B94C-EAEF6F7FB0F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2212FA46-231A-42F7-9BC9-885B8B8FE38A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +7010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7015,46 +7114,46 @@
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,46 +7165,46 @@
         <v>174</v>
       </c>
       <c r="D5" s="7">
-        <v>142388</v>
+        <v>170132</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="H5" s="7">
         <v>227</v>
       </c>
       <c r="I5" s="7">
-        <v>120047</v>
+        <v>128577</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="M5" s="7">
         <v>401</v>
       </c>
       <c r="N5" s="7">
-        <v>262435</v>
+        <v>298709</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7216,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7132,7 +7231,7 @@
         <v>257</v>
       </c>
       <c r="I6" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7147,7 +7246,7 @@
         <v>459</v>
       </c>
       <c r="N6" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7170,46 +7269,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,46 +7320,46 @@
         <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>179151</v>
+        <v>178017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>120029</v>
+        <v>112110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="M8" s="7">
         <v>272</v>
       </c>
       <c r="N8" s="7">
-        <v>299180</v>
+        <v>290126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7371,7 @@
         <v>160</v>
       </c>
       <c r="D9" s="7">
-        <v>225152</v>
+        <v>224297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7287,7 +7386,7 @@
         <v>203</v>
       </c>
       <c r="I9" s="7">
-        <v>168650</v>
+        <v>157553</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7302,7 +7401,7 @@
         <v>363</v>
       </c>
       <c r="N9" s="7">
-        <v>393802</v>
+        <v>381849</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7325,46 +7424,46 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>48921</v>
+        <v>45927</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
       </c>
       <c r="N10" s="7">
-        <v>99652</v>
+        <v>95422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7475,46 @@
         <v>97</v>
       </c>
       <c r="D11" s="7">
-        <v>98493</v>
+        <v>97301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
       </c>
       <c r="I11" s="7">
-        <v>79472</v>
+        <v>74935</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
       </c>
       <c r="N11" s="7">
-        <v>177964</v>
+        <v>172235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7526,7 @@
         <v>150</v>
       </c>
       <c r="D12" s="7">
-        <v>149223</v>
+        <v>146796</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7442,7 +7541,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7457,7 +7556,7 @@
         <v>319</v>
       </c>
       <c r="N12" s="7">
-        <v>277616</v>
+        <v>267657</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7480,46 +7579,46 @@
         <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>104293</v>
+        <v>121006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7630,46 @@
         <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>132453</v>
+        <v>128309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
       </c>
       <c r="I14" s="7">
-        <v>133090</v>
+        <v>177853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
       </c>
       <c r="N14" s="7">
-        <v>265543</v>
+        <v>306161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7681,7 @@
         <v>127</v>
       </c>
       <c r="D15" s="7">
-        <v>174587</v>
+        <v>168662</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7597,7 +7696,7 @@
         <v>203</v>
       </c>
       <c r="I15" s="7">
-        <v>195249</v>
+        <v>258505</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7612,7 +7711,7 @@
         <v>330</v>
       </c>
       <c r="N15" s="7">
-        <v>369836</v>
+        <v>427167</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7635,46 +7734,46 @@
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,46 +7785,46 @@
         <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>105585</v>
+        <v>96482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
       </c>
       <c r="I17" s="7">
-        <v>104614</v>
+        <v>94721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
       </c>
       <c r="N17" s="7">
-        <v>210199</v>
+        <v>191203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7836,7 @@
         <v>171</v>
       </c>
       <c r="D18" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7752,7 +7851,7 @@
         <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>116595</v>
+        <v>105707</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7767,7 +7866,7 @@
         <v>409</v>
       </c>
       <c r="N18" s="7">
-        <v>241621</v>
+        <v>219946</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7790,46 +7889,46 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
       </c>
       <c r="I19" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>586</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
       </c>
       <c r="N19" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,46 +7940,46 @@
         <v>115</v>
       </c>
       <c r="D20" s="7">
-        <v>105149</v>
+        <v>102682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>60474</v>
+        <v>56187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>596</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
       </c>
       <c r="N20" s="7">
-        <v>165623</v>
+        <v>158869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7991,7 @@
         <v>154</v>
       </c>
       <c r="D21" s="7">
-        <v>137855</v>
+        <v>134298</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7907,7 +8006,7 @@
         <v>129</v>
       </c>
       <c r="I21" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7922,7 +8021,7 @@
         <v>283</v>
       </c>
       <c r="N21" s="7">
-        <v>230800</v>
+        <v>220700</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7945,46 +8044,46 @@
         <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
       </c>
       <c r="I22" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
       </c>
       <c r="N22" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,46 +8095,46 @@
         <v>240</v>
       </c>
       <c r="D23" s="7">
-        <v>256994</v>
+        <v>256933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
       </c>
       <c r="I23" s="7">
-        <v>246409</v>
+        <v>231082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="M23" s="7">
         <v>577</v>
       </c>
       <c r="N23" s="7">
-        <v>503403</v>
+        <v>488015</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8146,7 @@
         <v>310</v>
       </c>
       <c r="D24" s="7">
-        <v>331371</v>
+        <v>330111</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8062,7 +8161,7 @@
         <v>440</v>
       </c>
       <c r="I24" s="7">
-        <v>321489</v>
+        <v>301609</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8077,7 +8176,7 @@
         <v>750</v>
       </c>
       <c r="N24" s="7">
-        <v>652861</v>
+        <v>631720</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8100,46 +8199,46 @@
         <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
       </c>
       <c r="I25" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>126</v>
       </c>
       <c r="N25" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,46 +8250,46 @@
         <v>328</v>
       </c>
       <c r="D26" s="7">
-        <v>439035</v>
+        <v>571568</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>305</v>
       </c>
       <c r="I26" s="7">
-        <v>258933</v>
+        <v>215656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>633</v>
       </c>
       <c r="N26" s="7">
-        <v>697969</v>
+        <v>787225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +8301,7 @@
         <v>385</v>
       </c>
       <c r="D27" s="7">
-        <v>506091</v>
+        <v>628325</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8217,7 +8316,7 @@
         <v>374</v>
       </c>
       <c r="I27" s="7">
-        <v>326069</v>
+        <v>270366</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8232,7 +8331,7 @@
         <v>759</v>
       </c>
       <c r="N27" s="7">
-        <v>832160</v>
+        <v>898692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8255,46 +8354,46 @@
         <v>338</v>
       </c>
       <c r="D28" s="7">
-        <v>353017</v>
+        <v>339505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>634</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>549</v>
+        <v>636</v>
       </c>
       <c r="H28" s="7">
         <v>474</v>
       </c>
       <c r="I28" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="M28" s="7">
         <v>812</v>
       </c>
       <c r="N28" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>503</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,46 +8405,46 @@
         <v>1321</v>
       </c>
       <c r="D29" s="7">
-        <v>1459248</v>
+        <v>1601423</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>642</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="H29" s="7">
         <v>1539</v>
       </c>
       <c r="I29" s="7">
-        <v>1123068</v>
+        <v>1091121</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
       </c>
       <c r="N29" s="7">
-        <v>2582316</v>
+        <v>2692544</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>649</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8456,7 @@
         <v>1659</v>
       </c>
       <c r="D30" s="7">
-        <v>1812265</v>
+        <v>1940928</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8372,7 +8471,7 @@
         <v>2013</v>
       </c>
       <c r="I30" s="7">
-        <v>1484279</v>
+        <v>1445336</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8387,7 +8486,7 @@
         <v>3672</v>
       </c>
       <c r="N30" s="7">
-        <v>3296544</v>
+        <v>3386264</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
